--- a/doc/A렌트카_개발가이드1.0.xlsx
+++ b/doc/A렌트카_개발가이드1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="개발환경" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="메뉴구성" sheetId="11" r:id="rId7"/>
     <sheet name="테이블명" sheetId="14" r:id="rId8"/>
     <sheet name="테이블 컬럼명" sheetId="36" r:id="rId9"/>
-    <sheet name="컬러명" sheetId="35" r:id="rId10"/>
+    <sheet name="컬럼명" sheetId="35" r:id="rId10"/>
     <sheet name="참고(bcrypt 암호화)" sheetId="25" r:id="rId11"/>
     <sheet name="참고(MVC 패턴설명)" sheetId="7" r:id="rId12"/>
     <sheet name="참고(docker)" sheetId="21" r:id="rId13"/>
@@ -35,7 +35,7 @@
     <sheet name="요구사항정의서" sheetId="37" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'테이블 컬럼명'!$A$1:$M$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'테이블 컬럼명'!$A$1:$M$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="1398">
   <si>
     <t>개발환경</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14179,6 +14179,33 @@
   </si>
   <si>
     <t>요구사항 정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance_type</t>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14576,20 +14603,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15078,10 +15105,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17124,6 +17151,29 @@
       </c>
       <c r="H85" s="12" t="s">
         <v>1328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>1395</v>
       </c>
     </row>
   </sheetData>
@@ -21421,7 +21471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A276"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A208" workbookViewId="0">
       <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
@@ -22475,7 +22525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -22486,10 +22536,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>1390</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -22511,7 +22561,7 @@
       <c r="A4" s="24" t="s">
         <v>1355</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="37">
         <v>45244</v>
       </c>
     </row>
@@ -22523,7 +22573,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>1358</v>
       </c>
@@ -22540,7 +22590,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="41" t="s">
         <v>1362</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -22548,25 +22598,25 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="20" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="20" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="20" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="41" t="s">
         <v>1367</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -22574,25 +22624,25 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="20" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
       <c r="B14" s="24" t="s">
         <v>1370</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
         <v>1372</v>
       </c>
       <c r="B16" s="24" t="s">
@@ -22600,37 +22650,37 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="20" t="s">
         <v>1374</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="24" t="s">
         <v>1375</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="20" t="s">
         <v>1376</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="24" t="s">
         <v>1377</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>1378</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="41" t="s">
         <v>1379</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -22638,13 +22688,13 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>1381</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="41" t="s">
         <v>1382</v>
       </c>
       <c r="B24" s="20" t="s">
@@ -22652,13 +22702,13 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
+      <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>1384</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="41" t="s">
         <v>1385</v>
       </c>
       <c r="B26" s="20" t="s">
@@ -22666,7 +22716,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="20" t="s">
         <v>1387</v>
       </c>
@@ -22681,13 +22731,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23490,8 +23540,8 @@
       </c>
       <c r="B108" s="18"/>
     </row>
-    <row r="109" spans="1:2" s="38" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="37" t="s">
+    <row r="109" spans="1:2" s="39" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="38" t="s">
         <v>353</v>
       </c>
     </row>
@@ -25860,10 +25910,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25931,27 +25981,27 @@
         <v>1078</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(C2,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C2,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_type_code</v>
       </c>
       <c r="E2" t="str">
-        <f>VLOOKUP(C2,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C2,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP(C2,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C2,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(C2,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C2,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I2" t="str">
-        <f>VLOOKUP(C2,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C2,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J2" t="str">
-        <f>VLOOKUP(C2,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C2,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="K2">
@@ -25975,27 +26025,27 @@
         <v>1077</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(C3,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C3,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_type_category</v>
       </c>
       <c r="E3" t="str">
-        <f>VLOOKUP(C3,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C3,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F3">
-        <f>VLOOKUP(C3,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C3,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(C3,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C3,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I3" t="str">
-        <f>VLOOKUP(C3,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C3,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J3" t="str">
-        <f>VLOOKUP(C3,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C3,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L3">
@@ -26013,27 +26063,27 @@
         <v>1079</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(C4,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C4,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_type_name</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(C4,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C4,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F4">
-        <f>VLOOKUP(C4,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C4,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(C4,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C4,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I4" t="str">
-        <f>VLOOKUP(C4,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C4,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J4" t="str">
-        <f>VLOOKUP(C4,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C4,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L4">
@@ -26051,27 +26101,27 @@
         <v>1092</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(C5,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C5,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>seating_capacity</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(C5,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C5,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F5">
-        <f>VLOOKUP(C5,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C5,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(C5,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C5,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I5" t="str">
-        <f>VLOOKUP(C5,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C5,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J5" t="str">
-        <f>VLOOKUP(C5,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C5,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L5">
@@ -26089,27 +26139,27 @@
         <v>1093</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(C6,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C6,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>fuel_type</v>
       </c>
       <c r="E6" t="str">
-        <f>VLOOKUP(C6,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C6,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F6">
-        <f>VLOOKUP(C6,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C6,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(C6,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C6,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I6" t="str">
-        <f>VLOOKUP(C6,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C6,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J6" t="str">
-        <f>VLOOKUP(C6,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C6,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L6">
@@ -26127,27 +26177,27 @@
         <v>1099</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(C7,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C7,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>speed_limit</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(C7,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C7,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F7">
-        <f>VLOOKUP(C7,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C7,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(C7,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C7,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I7" t="str">
-        <f>VLOOKUP(C7,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C7,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J7" t="str">
-        <f>VLOOKUP(C7,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C7,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L7">
@@ -26165,27 +26215,27 @@
         <v>1100</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(C8,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C8,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>license_restriction</v>
       </c>
       <c r="E8" t="str">
-        <f>VLOOKUP(C8,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C8,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F8">
-        <f>VLOOKUP(C8,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C8,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(C8,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C8,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I8" t="str">
-        <f>VLOOKUP(C8,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C8,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J8" t="str">
-        <f>VLOOKUP(C8,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C8,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L8">
@@ -26203,27 +26253,27 @@
         <v>1118</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(C9,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C9,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_manufacturer</v>
       </c>
       <c r="E9" t="str">
-        <f>VLOOKUP(C9,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C9,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F9">
-        <f>VLOOKUP(C9,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C9,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(C9,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C9,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I9" t="str">
-        <f>VLOOKUP(C9,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C9,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J9" t="str">
-        <f>VLOOKUP(C9,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C9,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L9">
@@ -26241,25 +26291,25 @@
         <v>915</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(C10,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C10,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>created_at</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(C10,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C10,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(C10,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C10,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="str">
-        <f>VLOOKUP(C10,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C10,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J10" t="str">
-        <f>VLOOKUP(C10,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C10,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>create</v>
       </c>
       <c r="K10"/>
@@ -26278,25 +26328,25 @@
         <v>910</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(C11,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C11,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>updated_at</v>
       </c>
       <c r="E11" t="str">
-        <f>VLOOKUP(C11,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C11,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F11" t="str">
-        <f>VLOOKUP(C11,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C11,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="str">
-        <f>VLOOKUP(C11,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C11,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J11" t="str">
-        <f>VLOOKUP(C11,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C11,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>update</v>
       </c>
       <c r="K11"/>
@@ -26315,27 +26365,27 @@
         <v>1102</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(C12,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C12,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_code</v>
       </c>
       <c r="E12" t="str">
-        <f>VLOOKUP(C12,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C12,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F12" t="str">
-        <f>VLOOKUP(C12,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C12,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(C12,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C12,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I12" t="str">
-        <f>VLOOKUP(C12,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C12,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J12" t="str">
-        <f>VLOOKUP(C12,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C12,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="K12">
@@ -26359,27 +26409,27 @@
         <v>1078</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(C13,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C13,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_type_code</v>
       </c>
       <c r="E13" t="str">
-        <f>VLOOKUP(C13,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C13,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F13" t="str">
-        <f>VLOOKUP(C13,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C13,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(C13,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C13,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I13" t="str">
-        <f>VLOOKUP(C13,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C13,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J13" t="str">
-        <f>VLOOKUP(C13,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C13,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L13">
@@ -26397,27 +26447,27 @@
         <v>1105</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(C14,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C14,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_number</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(C14,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C14,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F14">
-        <f>VLOOKUP(C14,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C14,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(C14,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C14,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I14" t="str">
-        <f>VLOOKUP(C14,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C14,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J14" t="str">
-        <f>VLOOKUP(C14,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C14,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L14">
@@ -26435,27 +26485,27 @@
         <v>1101</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(C15,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C15,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>model_year</v>
       </c>
       <c r="E15" t="str">
-        <f>VLOOKUP(C15,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C15,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F15">
-        <f>VLOOKUP(C15,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C15,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(C15,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C15,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I15" t="str">
-        <f>VLOOKUP(C15,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C15,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J15" t="str">
-        <f>VLOOKUP(C15,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C15,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L15">
@@ -26473,27 +26523,27 @@
         <v>1103</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(C16,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C16,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_image_name</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(C16,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C16,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F16">
-        <f>VLOOKUP(C16,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C16,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>200</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(C16,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C16,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I16" t="str">
-        <f>VLOOKUP(C16,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C16,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J16" t="str">
-        <f>VLOOKUP(C16,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C16,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L16">
@@ -26511,27 +26561,27 @@
         <v>1082</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(C17,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C17,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>branch_code</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(C17,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C17,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F17" t="str">
-        <f>VLOOKUP(C17,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C17,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(C17,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C17,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I17" t="str">
-        <f>VLOOKUP(C17,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C17,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J17" t="str">
-        <f>VLOOKUP(C17,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C17,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L17">
@@ -26549,25 +26599,25 @@
         <v>915</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(C18,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C18,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>created_at</v>
       </c>
       <c r="E18" t="str">
-        <f>VLOOKUP(C18,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C18,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(C18,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C18,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="str">
-        <f>VLOOKUP(C18,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C18,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J18" t="str">
-        <f>VLOOKUP(C18,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C18,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>create</v>
       </c>
       <c r="K18"/>
@@ -26586,25 +26636,25 @@
         <v>910</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(C19,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C19,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>updated_at</v>
       </c>
       <c r="E19" t="str">
-        <f>VLOOKUP(C19,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C19,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F19" t="str">
-        <f>VLOOKUP(C19,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C19,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="str">
-        <f>VLOOKUP(C19,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C19,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J19" t="str">
-        <f>VLOOKUP(C19,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C19,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>update</v>
       </c>
       <c r="K19"/>
@@ -26623,27 +26673,27 @@
         <v>1104</v>
       </c>
       <c r="D20" t="str">
-        <f>VLOOKUP(C20,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C20,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>rate_code</v>
       </c>
       <c r="E20" t="str">
-        <f>VLOOKUP(C20,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C20,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F20" t="str">
-        <f>VLOOKUP(C20,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C20,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(C20,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C20,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I20" t="str">
-        <f>VLOOKUP(C20,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C20,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J20" t="str">
-        <f>VLOOKUP(C20,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C20,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="K20">
@@ -26667,27 +26717,27 @@
         <v>1078</v>
       </c>
       <c r="D21" t="str">
-        <f>VLOOKUP(C21,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C21,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_type_code</v>
       </c>
       <c r="E21" t="str">
-        <f>VLOOKUP(C21,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C21,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F21" t="str">
-        <f>VLOOKUP(C21,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C21,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(C21,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C21,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I21" t="str">
-        <f>VLOOKUP(C21,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C21,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J21" t="str">
-        <f>VLOOKUP(C21,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C21,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L21">
@@ -26705,27 +26755,27 @@
         <v>1106</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(C22,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C22,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>rental_rate_main_category</v>
       </c>
       <c r="E22" t="str">
-        <f>VLOOKUP(C22,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C22,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F22">
-        <f>VLOOKUP(C22,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C22,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(C22,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C22,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I22" t="str">
-        <f>VLOOKUP(C22,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C22,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J22" t="str">
-        <f>VLOOKUP(C22,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C22,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L22">
@@ -26743,27 +26793,27 @@
         <v>1107</v>
       </c>
       <c r="D23" t="str">
-        <f>VLOOKUP(C23,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C23,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>rental_rate_sub_category</v>
       </c>
       <c r="E23" t="str">
-        <f>VLOOKUP(C23,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C23,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F23">
-        <f>VLOOKUP(C23,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C23,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(C23,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C23,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I23" t="str">
-        <f>VLOOKUP(C23,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C23,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J23" t="str">
-        <f>VLOOKUP(C23,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C23,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L23">
@@ -26781,31 +26831,31 @@
         <v>1080</v>
       </c>
       <c r="D24" t="str">
-        <f>VLOOKUP(C24,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C24,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>rental_rate</v>
       </c>
       <c r="E24" t="str">
-        <f>VLOOKUP(C24,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C24,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F24" t="str">
-        <f>VLOOKUP(C24,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C24,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(C24,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C24,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="H24">
-        <f>VLOOKUP(C24,컬러명!$A$2:$H$179,6,FALSE)</f>
+        <f>VLOOKUP(C24,컬럼명!$A$2:$H$179,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I24" t="str">
-        <f>VLOOKUP(C24,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C24,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>number</v>
       </c>
       <c r="J24" t="str">
-        <f>VLOOKUP(C24,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C24,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L24">
@@ -26823,31 +26873,31 @@
         <v>1170</v>
       </c>
       <c r="D25" t="str">
-        <f>VLOOKUP(C25,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C25,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>rental_discount_rate</v>
       </c>
       <c r="E25" t="str">
-        <f>VLOOKUP(C25,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C25,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F25" t="str">
-        <f>VLOOKUP(C25,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C25,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(C25,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C25,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="H25">
-        <f>VLOOKUP(C25,컬러명!$A$2:$H$179,6,FALSE)</f>
+        <f>VLOOKUP(C25,컬럼명!$A$2:$H$179,6,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I25" t="str">
-        <f>VLOOKUP(C25,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C25,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>number</v>
       </c>
       <c r="J25" t="str">
-        <f>VLOOKUP(C25,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C25,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L25">
@@ -26865,25 +26915,25 @@
         <v>915</v>
       </c>
       <c r="D26" t="str">
-        <f>VLOOKUP(C26,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C26,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>created_at</v>
       </c>
       <c r="E26" t="str">
-        <f>VLOOKUP(C26,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C26,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F26" t="str">
-        <f>VLOOKUP(C26,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C26,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="str">
-        <f>VLOOKUP(C26,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C26,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J26" t="str">
-        <f>VLOOKUP(C26,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C26,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>create</v>
       </c>
       <c r="K26"/>
@@ -26902,25 +26952,25 @@
         <v>910</v>
       </c>
       <c r="D27" t="str">
-        <f>VLOOKUP(C27,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C27,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>updated_at</v>
       </c>
       <c r="E27" t="str">
-        <f>VLOOKUP(C27,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C27,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F27" t="str">
-        <f>VLOOKUP(C27,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C27,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="str">
-        <f>VLOOKUP(C27,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C27,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J27" t="str">
-        <f>VLOOKUP(C27,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C27,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>update</v>
       </c>
       <c r="K27"/>
@@ -26939,27 +26989,27 @@
         <v>1081</v>
       </c>
       <c r="D28" t="str">
-        <f>VLOOKUP(C28,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C28,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>region_code</v>
       </c>
       <c r="E28" t="str">
-        <f>VLOOKUP(C28,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C28,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F28" t="str">
-        <f>VLOOKUP(C28,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C28,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G28" t="str">
-        <f>VLOOKUP(C28,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C28,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I28" t="str">
-        <f>VLOOKUP(C28,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C28,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J28" t="str">
-        <f>VLOOKUP(C28,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C28,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="K28">
@@ -26983,27 +27033,27 @@
         <v>1083</v>
       </c>
       <c r="D29" t="str">
-        <f>VLOOKUP(C29,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C29,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>region_name</v>
       </c>
       <c r="E29" t="str">
-        <f>VLOOKUP(C29,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C29,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F29">
-        <f>VLOOKUP(C29,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C29,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(C29,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C29,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I29" t="str">
-        <f>VLOOKUP(C29,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C29,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J29" t="str">
-        <f>VLOOKUP(C29,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C29,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L29">
@@ -27021,25 +27071,25 @@
         <v>915</v>
       </c>
       <c r="D30" t="str">
-        <f>VLOOKUP(C30,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C30,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>created_at</v>
       </c>
       <c r="E30" t="str">
-        <f>VLOOKUP(C30,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C30,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F30" t="str">
-        <f>VLOOKUP(C30,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C30,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="str">
-        <f>VLOOKUP(C30,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C30,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J30" t="str">
-        <f>VLOOKUP(C30,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C30,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>create</v>
       </c>
       <c r="K30"/>
@@ -27058,25 +27108,25 @@
         <v>910</v>
       </c>
       <c r="D31" t="str">
-        <f>VLOOKUP(C31,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C31,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>updated_at</v>
       </c>
       <c r="E31" t="str">
-        <f>VLOOKUP(C31,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C31,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F31" t="str">
-        <f>VLOOKUP(C31,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C31,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="str">
-        <f>VLOOKUP(C31,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C31,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J31" t="str">
-        <f>VLOOKUP(C31,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C31,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>update</v>
       </c>
       <c r="K31"/>
@@ -27095,27 +27145,27 @@
         <v>1082</v>
       </c>
       <c r="D32" t="str">
-        <f>VLOOKUP(C32,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C32,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>branch_code</v>
       </c>
       <c r="E32" t="str">
-        <f>VLOOKUP(C32,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C32,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F32" t="str">
-        <f>VLOOKUP(C32,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C32,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(C32,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C32,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I32" t="str">
-        <f>VLOOKUP(C32,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C32,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J32" t="str">
-        <f>VLOOKUP(C32,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C32,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="K32">
@@ -27139,27 +27189,27 @@
         <v>1084</v>
       </c>
       <c r="D33" t="str">
-        <f>VLOOKUP(C33,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C33,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>branch_name</v>
       </c>
       <c r="E33" t="str">
-        <f>VLOOKUP(C33,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C33,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F33">
-        <f>VLOOKUP(C33,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C33,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(C33,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C33,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I33" t="str">
-        <f>VLOOKUP(C33,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C33,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J33" t="str">
-        <f>VLOOKUP(C33,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C33,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L33">
@@ -27177,23 +27227,23 @@
         <v>1085</v>
       </c>
       <c r="D34" t="str">
-        <f>VLOOKUP(C34,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C34,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>branch_longitude</v>
       </c>
       <c r="E34" t="str">
-        <f>VLOOKUP(C34,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C34,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F34">
-        <f>VLOOKUP(C34,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C34,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>10</v>
       </c>
       <c r="I34" t="str">
-        <f>VLOOKUP(C34,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C34,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J34" t="str">
-        <f>VLOOKUP(C34,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C34,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L34">
@@ -27211,23 +27261,23 @@
         <v>1119</v>
       </c>
       <c r="D35" t="str">
-        <f>VLOOKUP(C35,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C35,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>branch_latitude</v>
       </c>
       <c r="E35" t="str">
-        <f>VLOOKUP(C35,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C35,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F35">
-        <f>VLOOKUP(C35,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C35,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>10</v>
       </c>
       <c r="I35" t="str">
-        <f>VLOOKUP(C35,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C35,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J35" t="str">
-        <f>VLOOKUP(C35,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C35,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L35">
@@ -27245,27 +27295,27 @@
         <v>1081</v>
       </c>
       <c r="D36" t="str">
-        <f>VLOOKUP(C36,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C36,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>region_code</v>
       </c>
       <c r="E36" t="str">
-        <f>VLOOKUP(C36,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C36,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F36" t="str">
-        <f>VLOOKUP(C36,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C36,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(C36,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C36,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I36" t="str">
-        <f>VLOOKUP(C36,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C36,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J36" t="str">
-        <f>VLOOKUP(C36,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C36,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L36">
@@ -27283,23 +27333,23 @@
         <v>1253</v>
       </c>
       <c r="D37" t="str">
-        <f>VLOOKUP(C37,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C37,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>post_code</v>
       </c>
       <c r="E37" t="str">
-        <f>VLOOKUP(C37,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C37,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F37">
-        <f>VLOOKUP(C37,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C37,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>5</v>
       </c>
       <c r="I37" t="str">
-        <f>VLOOKUP(C37,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C37,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J37" t="str">
-        <f>VLOOKUP(C37,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C37,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L37">
@@ -27317,23 +27367,23 @@
         <v>1172</v>
       </c>
       <c r="D38" t="str">
-        <f>VLOOKUP(C38,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C38,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>branch_basic_address</v>
       </c>
       <c r="E38" t="str">
-        <f>VLOOKUP(C38,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C38,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F38">
-        <f>VLOOKUP(C38,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C38,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>200</v>
       </c>
       <c r="I38" t="str">
-        <f>VLOOKUP(C38,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C38,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J38" t="str">
-        <f>VLOOKUP(C38,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C38,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L38">
@@ -27351,23 +27401,23 @@
         <v>1173</v>
       </c>
       <c r="D39" t="str">
-        <f>VLOOKUP(C39,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C39,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>branch_detailed_address</v>
       </c>
       <c r="E39" t="str">
-        <f>VLOOKUP(C39,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C39,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F39">
-        <f>VLOOKUP(C39,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C39,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>200</v>
       </c>
       <c r="I39" t="str">
-        <f>VLOOKUP(C39,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C39,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J39" t="str">
-        <f>VLOOKUP(C39,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C39,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L39">
@@ -27385,23 +27435,23 @@
         <v>1171</v>
       </c>
       <c r="D40" t="str">
-        <f>VLOOKUP(C40,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C40,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>branch_phone_number</v>
       </c>
       <c r="E40" t="str">
-        <f>VLOOKUP(C40,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C40,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F40">
-        <f>VLOOKUP(C40,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C40,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>20</v>
       </c>
       <c r="I40" t="str">
-        <f>VLOOKUP(C40,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C40,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J40" t="str">
-        <f>VLOOKUP(C40,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C40,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L40">
@@ -27419,23 +27469,23 @@
         <v>1116</v>
       </c>
       <c r="D41" t="str">
-        <f>VLOOKUP(C41,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C41,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>available_pickup_time</v>
       </c>
       <c r="E41" t="str">
-        <f>VLOOKUP(C41,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C41,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F41">
-        <f>VLOOKUP(C41,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C41,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I41" t="str">
-        <f>VLOOKUP(C41,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C41,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>time</v>
       </c>
       <c r="J41" t="str">
-        <f>VLOOKUP(C41,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C41,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L41">
@@ -27453,23 +27503,23 @@
         <v>1117</v>
       </c>
       <c r="D42" t="str">
-        <f>VLOOKUP(C42,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C42,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>available_return_time</v>
       </c>
       <c r="E42" t="str">
-        <f>VLOOKUP(C42,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C42,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F42">
-        <f>VLOOKUP(C42,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C42,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="I42" t="str">
-        <f>VLOOKUP(C42,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C42,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>time</v>
       </c>
       <c r="J42" t="str">
-        <f>VLOOKUP(C42,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C42,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L42">
@@ -27487,25 +27537,25 @@
         <v>915</v>
       </c>
       <c r="D43" t="str">
-        <f>VLOOKUP(C43,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C43,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>created_at</v>
       </c>
       <c r="E43" t="str">
-        <f>VLOOKUP(C43,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C43,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F43" t="str">
-        <f>VLOOKUP(C43,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C43,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="str">
-        <f>VLOOKUP(C43,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C43,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J43" t="str">
-        <f>VLOOKUP(C43,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C43,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>create</v>
       </c>
       <c r="K43"/>
@@ -27524,25 +27574,25 @@
         <v>910</v>
       </c>
       <c r="D44" t="str">
-        <f>VLOOKUP(C44,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C44,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>updated_at</v>
       </c>
       <c r="E44" t="str">
-        <f>VLOOKUP(C44,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C44,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F44" t="str">
-        <f>VLOOKUP(C44,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C44,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="str">
-        <f>VLOOKUP(C44,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C44,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J44" t="str">
-        <f>VLOOKUP(C44,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C44,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>update</v>
       </c>
       <c r="K44"/>
@@ -27561,27 +27611,27 @@
         <v>1108</v>
       </c>
       <c r="D45" t="str">
-        <f>VLOOKUP(C45,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C45,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>reservation_code</v>
       </c>
       <c r="E45" t="str">
-        <f>VLOOKUP(C45,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C45,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F45" t="str">
-        <f>VLOOKUP(C45,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C45,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(C45,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C45,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I45" t="str">
-        <f>VLOOKUP(C45,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C45,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J45" t="str">
-        <f>VLOOKUP(C45,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C45,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="K45">
@@ -27605,27 +27655,27 @@
         <v>1109</v>
       </c>
       <c r="D46" t="str">
-        <f>VLOOKUP(C46,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C46,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>user_code</v>
       </c>
       <c r="E46" t="str">
-        <f>VLOOKUP(C46,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C46,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F46" t="str">
-        <f>VLOOKUP(C46,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C46,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(C46,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C46,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I46" t="str">
-        <f>VLOOKUP(C46,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C46,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J46" t="str">
-        <f>VLOOKUP(C46,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C46,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L46">
@@ -27643,27 +27693,27 @@
         <v>1102</v>
       </c>
       <c r="D47" t="str">
-        <f>VLOOKUP(C47,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C47,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>car_code</v>
       </c>
       <c r="E47" t="str">
-        <f>VLOOKUP(C47,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C47,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F47" t="str">
-        <f>VLOOKUP(C47,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C47,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(C47,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C47,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I47" t="str">
-        <f>VLOOKUP(C47,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C47,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J47" t="str">
-        <f>VLOOKUP(C47,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C47,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L47">
@@ -27681,27 +27731,27 @@
         <v>1086</v>
       </c>
       <c r="D48" t="str">
-        <f>VLOOKUP(C48,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C48,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>rental_location</v>
       </c>
       <c r="E48" t="str">
-        <f>VLOOKUP(C48,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C48,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F48" t="str">
-        <f>VLOOKUP(C48,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C48,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(C48,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C48,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I48" t="str">
-        <f>VLOOKUP(C48,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C48,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J48" t="str">
-        <f>VLOOKUP(C48,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C48,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L48">
@@ -27719,27 +27769,27 @@
         <v>1088</v>
       </c>
       <c r="D49" t="str">
-        <f>VLOOKUP(C49,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C49,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>rental_date</v>
       </c>
       <c r="E49" t="str">
-        <f>VLOOKUP(C49,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C49,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F49">
-        <f>VLOOKUP(C49,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C49,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>8</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(C49,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C49,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I49" t="str">
-        <f>VLOOKUP(C49,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C49,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>date</v>
       </c>
       <c r="J49" t="str">
-        <f>VLOOKUP(C49,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C49,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L49">
@@ -27757,27 +27807,27 @@
         <v>1089</v>
       </c>
       <c r="D50" t="str">
-        <f>VLOOKUP(C50,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C50,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>rental_time</v>
       </c>
       <c r="E50" t="str">
-        <f>VLOOKUP(C50,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C50,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F50">
-        <f>VLOOKUP(C50,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C50,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(C50,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C50,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I50" t="str">
-        <f>VLOOKUP(C50,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C50,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>time</v>
       </c>
       <c r="J50" t="str">
-        <f>VLOOKUP(C50,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C50,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L50">
@@ -27795,27 +27845,27 @@
         <v>1087</v>
       </c>
       <c r="D51" t="str">
-        <f>VLOOKUP(C51,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C51,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>return_location</v>
       </c>
       <c r="E51" t="str">
-        <f>VLOOKUP(C51,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C51,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F51" t="str">
-        <f>VLOOKUP(C51,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C51,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(C51,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C51,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I51" t="str">
-        <f>VLOOKUP(C51,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C51,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J51" t="str">
-        <f>VLOOKUP(C51,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C51,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L51">
@@ -27833,27 +27883,27 @@
         <v>1090</v>
       </c>
       <c r="D52" t="str">
-        <f>VLOOKUP(C52,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C52,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>return_date</v>
       </c>
       <c r="E52" t="str">
-        <f>VLOOKUP(C52,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C52,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F52">
-        <f>VLOOKUP(C52,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C52,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>8</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(C52,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C52,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I52" t="str">
-        <f>VLOOKUP(C52,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C52,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>date</v>
       </c>
       <c r="J52" t="str">
-        <f>VLOOKUP(C52,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C52,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L52">
@@ -27871,27 +27921,27 @@
         <v>1091</v>
       </c>
       <c r="D53" t="str">
-        <f>VLOOKUP(C53,컬러명!$A$2:$H$179,2,FALSE)</f>
+        <f>VLOOKUP(C53,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>return_time</v>
       </c>
       <c r="E53" t="str">
-        <f>VLOOKUP(C53,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C53,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F53">
-        <f>VLOOKUP(C53,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C53,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>4</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(C53,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C53,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I53" t="str">
-        <f>VLOOKUP(C53,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C53,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>time</v>
       </c>
       <c r="J53" t="str">
-        <f>VLOOKUP(C53,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C53,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L53">
@@ -27905,32 +27955,26 @@
       <c r="B54" t="s">
         <v>1186</v>
       </c>
-      <c r="C54" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D54" t="str">
-        <f>VLOOKUP(C54,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>payment_category</v>
-      </c>
-      <c r="E54" t="str">
-        <f>VLOOKUP(C54,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+      <c r="C54" s="12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>1392</v>
       </c>
       <c r="F54">
-        <f>VLOOKUP(C54,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G54" t="str">
-        <f>VLOOKUP(C54,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
-      <c r="I54" t="str">
-        <f>VLOOKUP(C54,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J54" t="str">
-        <f>VLOOKUP(C54,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
+        <v>2</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>1394</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>1395</v>
       </c>
       <c r="L54">
         <v>10</v>
@@ -27944,30 +27988,30 @@
         <v>1186</v>
       </c>
       <c r="C55" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D55" t="str">
-        <f>VLOOKUP(C55,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>payment_type</v>
+        <f>VLOOKUP(C55,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>payment_category</v>
       </c>
       <c r="E55" t="str">
-        <f>VLOOKUP(C55,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C55,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F55">
-        <f>VLOOKUP(C55,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(C55,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(C55,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C55,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I55" t="str">
-        <f>VLOOKUP(C55,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C55,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J55" t="str">
-        <f>VLOOKUP(C55,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C55,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L55">
@@ -27982,73 +28026,74 @@
         <v>1186</v>
       </c>
       <c r="C56" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="D56" t="str">
-        <f>VLOOKUP(C56,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>payment_amount</v>
+        <f>VLOOKUP(C56,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>payment_type</v>
       </c>
       <c r="E56" t="str">
-        <f>VLOOKUP(C56,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F56" t="str">
-        <f>VLOOKUP(C56,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(C56,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
+      </c>
+      <c r="F56">
+        <f>VLOOKUP(C56,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(C56,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C56,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
-      <c r="H56">
-        <f>VLOOKUP(C56,컬러명!$A$2:$H$179,6,FALSE)</f>
-        <v>0</v>
-      </c>
       <c r="I56" t="str">
-        <f>VLOOKUP(C56,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>number</v>
+        <f>VLOOKUP(C56,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J56" t="str">
-        <f>VLOOKUP(C56,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C56,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L56">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1179</v>
       </c>
       <c r="B57" t="s">
         <v>1186</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>915</v>
+      <c r="C57" t="s">
+        <v>1110</v>
       </c>
       <c r="D57" t="str">
-        <f>VLOOKUP(C57,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C57,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>payment_amount</v>
       </c>
       <c r="E57" t="str">
-        <f>VLOOKUP(C57,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
+        <f>VLOOKUP(C57,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
       </c>
       <c r="F57" t="str">
-        <f>VLOOKUP(C57,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C57,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
-      <c r="G57"/>
-      <c r="H57"/>
+      <c r="G57" t="str">
+        <f>VLOOKUP(C57,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
+      <c r="H57">
+        <f>VLOOKUP(C57,컬럼명!$A$2:$H$179,6,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="I57" t="str">
-        <f>VLOOKUP(C57,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C57,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>number</v>
       </c>
       <c r="J57" t="str">
-        <f>VLOOKUP(C57,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
-      </c>
-      <c r="K57"/>
+        <f>VLOOKUP(C57,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
+      </c>
       <c r="L57">
         <v>13</v>
       </c>
@@ -28061,77 +28106,70 @@
         <v>1186</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D58" t="str">
-        <f>VLOOKUP(C58,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <f>VLOOKUP(C58,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
       </c>
       <c r="E58" t="str">
-        <f>VLOOKUP(C58,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C58,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F58" t="str">
-        <f>VLOOKUP(C58,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C58,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58" t="str">
-        <f>VLOOKUP(C58,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C58,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J58" t="str">
-        <f>VLOOKUP(C58,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <f>VLOOKUP(C58,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
       </c>
       <c r="K58"/>
       <c r="L58">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B59" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1109</v>
+        <v>1186</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>910</v>
       </c>
       <c r="D59" t="str">
-        <f>VLOOKUP(C59,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>user_code</v>
+        <f>VLOOKUP(C59,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>updated_at</v>
       </c>
       <c r="E59" t="str">
-        <f>VLOOKUP(C59,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
+        <f>VLOOKUP(C59,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
       </c>
       <c r="F59" t="str">
-        <f>VLOOKUP(C59,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C59,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
-      <c r="G59" t="str">
-        <f>VLOOKUP(C59,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
+      <c r="G59"/>
+      <c r="H59"/>
       <c r="I59" t="str">
-        <f>VLOOKUP(C59,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <f>VLOOKUP(C59,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
       </c>
       <c r="J59" t="str">
-        <f>VLOOKUP(C59,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
+        <f>VLOOKUP(C59,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>update</v>
+      </c>
+      <c r="K59"/>
       <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -28141,35 +28179,41 @@
       <c r="B60" t="s">
         <v>1064</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>901</v>
+      <c r="C60" t="s">
+        <v>1109</v>
       </c>
       <c r="D60" t="str">
-        <f>VLOOKUP(C60,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>user_email</v>
+        <f>VLOOKUP(C60,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>user_code</v>
       </c>
       <c r="E60" t="str">
-        <f>VLOOKUP(C60,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F60">
-        <f>VLOOKUP(C60,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <f>VLOOKUP(C60,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
+      </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP(C60,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(C60,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C60,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I60" t="str">
-        <f>VLOOKUP(C60,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C60,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J60" t="str">
-        <f>VLOOKUP(C60,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C60,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -28180,34 +28224,34 @@
         <v>1064</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>229</v>
+        <v>901</v>
       </c>
       <c r="D61" t="str">
-        <f>VLOOKUP(C61,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>user_name</v>
+        <f>VLOOKUP(C61,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>user_email</v>
       </c>
       <c r="E61" t="str">
-        <f>VLOOKUP(C61,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C61,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F61">
-        <f>VLOOKUP(C61,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C61,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(C61,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C61,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I61" t="str">
-        <f>VLOOKUP(C61,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C61,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J61" t="str">
-        <f>VLOOKUP(C61,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C61,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L61">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -28218,34 +28262,34 @@
         <v>1064</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>907</v>
+        <v>229</v>
       </c>
       <c r="D62" t="str">
-        <f>VLOOKUP(C62,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>user_password</v>
+        <f>VLOOKUP(C62,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>user_name</v>
       </c>
       <c r="E62" t="str">
-        <f>VLOOKUP(C62,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C62,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F62">
-        <f>VLOOKUP(C62,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C62,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(C62,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C62,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I62" t="str">
-        <f>VLOOKUP(C62,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C62,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J62" t="str">
-        <f>VLOOKUP(C62,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C62,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -28256,34 +28300,34 @@
         <v>1064</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D63" t="str">
-        <f>VLOOKUP(C63,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>user_phone_number</v>
+        <f>VLOOKUP(C63,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>user_password</v>
       </c>
       <c r="E63" t="str">
-        <f>VLOOKUP(C63,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C63,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F63">
-        <f>VLOOKUP(C63,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>20</v>
+        <f>VLOOKUP(C63,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(C63,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C63,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I63" t="str">
-        <f>VLOOKUP(C63,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C63,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J63" t="str">
-        <f>VLOOKUP(C63,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C63,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -28294,34 +28338,34 @@
         <v>1064</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>1063</v>
+        <v>905</v>
       </c>
       <c r="D64" t="str">
-        <f>VLOOKUP(C64,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>user_birth_date</v>
+        <f>VLOOKUP(C64,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>user_phone_number</v>
       </c>
       <c r="E64" t="str">
-        <f>VLOOKUP(C64,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <f>VLOOKUP(C64,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F64">
-        <f>VLOOKUP(C64,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C64,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(C64,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C64,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I64" t="str">
-        <f>VLOOKUP(C64,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>date</v>
+        <f>VLOOKUP(C64,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J64" t="str">
-        <f>VLOOKUP(C64,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C64,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -28331,35 +28375,35 @@
       <c r="B65" t="s">
         <v>1064</v>
       </c>
-      <c r="C65" t="s">
-        <v>1094</v>
+      <c r="C65" s="12" t="s">
+        <v>1063</v>
       </c>
       <c r="D65" t="str">
-        <f>VLOOKUP(C65,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>driver_license_number</v>
+        <f>VLOOKUP(C65,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>user_birth_date</v>
       </c>
       <c r="E65" t="str">
-        <f>VLOOKUP(C65,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <f>VLOOKUP(C65,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
       </c>
       <c r="F65">
-        <f>VLOOKUP(C65,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>50</v>
+        <f>VLOOKUP(C65,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(C65,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C65,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I65" t="str">
-        <f>VLOOKUP(C65,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C65,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>date</v>
       </c>
       <c r="J65" t="str">
-        <f>VLOOKUP(C65,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C65,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -28370,34 +28414,34 @@
         <v>1064</v>
       </c>
       <c r="C66" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D66" t="str">
-        <f>VLOOKUP(C66,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>license_expiry_date</v>
+        <f>VLOOKUP(C66,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>driver_license_number</v>
       </c>
       <c r="E66" t="str">
-        <f>VLOOKUP(C66,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <f>VLOOKUP(C66,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F66">
-        <f>VLOOKUP(C66,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>8</v>
+        <f>VLOOKUP(C66,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>50</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(C66,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C66,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I66" t="str">
-        <f>VLOOKUP(C66,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>date</v>
+        <f>VLOOKUP(C66,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J66" t="str">
-        <f>VLOOKUP(C66,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C66,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L66">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -28408,34 +28452,34 @@
         <v>1064</v>
       </c>
       <c r="C67" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D67" t="str">
-        <f>VLOOKUP(C67,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>license_issue_date</v>
+        <f>VLOOKUP(C67,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>license_expiry_date</v>
       </c>
       <c r="E67" t="str">
-        <f>VLOOKUP(C67,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C67,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F67">
-        <f>VLOOKUP(C67,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C67,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>8</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(C67,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C67,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I67" t="str">
-        <f>VLOOKUP(C67,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C67,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>date</v>
       </c>
       <c r="J67" t="str">
-        <f>VLOOKUP(C67,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C67,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L67">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -28445,35 +28489,35 @@
       <c r="B68" t="s">
         <v>1064</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>230</v>
+      <c r="C68" t="s">
+        <v>1096</v>
       </c>
       <c r="D68" t="str">
-        <f>VLOOKUP(C68,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>user_category</v>
+        <f>VLOOKUP(C68,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>license_issue_date</v>
       </c>
       <c r="E68" t="str">
-        <f>VLOOKUP(C68,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C68,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F68">
-        <f>VLOOKUP(C68,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(C68,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>8</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(C68,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C68,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I68" t="str">
-        <f>VLOOKUP(C68,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C68,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>date</v>
       </c>
       <c r="J68" t="str">
-        <f>VLOOKUP(C68,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C68,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L68">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -28484,37 +28528,37 @@
         <v>1064</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D69" t="str">
-        <f>VLOOKUP(C69,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>usage_status</v>
+        <f>VLOOKUP(C69,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>user_category</v>
       </c>
       <c r="E69" t="str">
-        <f>VLOOKUP(C69,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C69,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F69">
-        <f>VLOOKUP(C69,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C69,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>1</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(C69,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C69,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I69" t="str">
-        <f>VLOOKUP(C69,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C69,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J69" t="str">
-        <f>VLOOKUP(C69,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C69,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1180</v>
       </c>
@@ -28522,33 +28566,34 @@
         <v>1064</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>915</v>
+        <v>231</v>
       </c>
       <c r="D70" t="str">
-        <f>VLOOKUP(C70,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C70,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>usage_status</v>
       </c>
       <c r="E70" t="str">
-        <f>VLOOKUP(C70,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F70" t="str">
-        <f>VLOOKUP(C70,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="G70"/>
-      <c r="H70"/>
+        <f>VLOOKUP(C70,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP(C70,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP(C70,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
       <c r="I70" t="str">
-        <f>VLOOKUP(C70,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C70,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J70" t="str">
-        <f>VLOOKUP(C70,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
-      </c>
-      <c r="K70"/>
+        <f>VLOOKUP(C70,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
+      </c>
       <c r="L70">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -28559,77 +28604,70 @@
         <v>1064</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D71" t="str">
-        <f>VLOOKUP(C71,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <f>VLOOKUP(C71,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
       </c>
       <c r="E71" t="str">
-        <f>VLOOKUP(C71,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C71,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F71" t="str">
-        <f>VLOOKUP(C71,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C71,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="str">
-        <f>VLOOKUP(C71,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C71,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J71" t="str">
-        <f>VLOOKUP(C71,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <f>VLOOKUP(C71,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
       </c>
       <c r="K71"/>
       <c r="L71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="D72" t="str">
+        <f>VLOOKUP(C72,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>updated_at</v>
+      </c>
+      <c r="E72" t="str">
+        <f>VLOOKUP(C72,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
+      </c>
+      <c r="F72" t="str">
+        <f>VLOOKUP(C72,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72" t="str">
+        <f>VLOOKUP(C72,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
+      </c>
+      <c r="J72" t="str">
+        <f>VLOOKUP(C72,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>update</v>
+      </c>
+      <c r="K72"/>
+      <c r="L72">
         <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D72" t="str">
-        <f>VLOOKUP(C72,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>admin_code</v>
-      </c>
-      <c r="E72" t="str">
-        <f>VLOOKUP(C72,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F72" t="str">
-        <f>VLOOKUP(C72,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="G72" t="str">
-        <f>VLOOKUP(C72,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
-      <c r="I72" t="str">
-        <f>VLOOKUP(C72,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J72" t="str">
-        <f>VLOOKUP(C72,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -28640,34 +28678,40 @@
         <v>1236</v>
       </c>
       <c r="C73" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D73" t="str">
-        <f>VLOOKUP(C73,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>admin_id</v>
+        <f>VLOOKUP(C73,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>admin_code</v>
       </c>
       <c r="E73" t="str">
-        <f>VLOOKUP(C73,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F73">
-        <f>VLOOKUP(C73,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>50</v>
+        <f>VLOOKUP(C73,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
+      </c>
+      <c r="F73" t="str">
+        <f>VLOOKUP(C73,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(C73,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C73,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I73" t="str">
-        <f>VLOOKUP(C73,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C73,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J73" t="str">
-        <f>VLOOKUP(C73,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C73,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
       <c r="L73">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -28678,34 +28722,34 @@
         <v>1236</v>
       </c>
       <c r="C74" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D74" t="str">
-        <f>VLOOKUP(C74,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>admin_password</v>
+        <f>VLOOKUP(C74,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>admin_id</v>
       </c>
       <c r="E74" t="str">
-        <f>VLOOKUP(C74,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C74,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F74">
-        <f>VLOOKUP(C74,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <f>VLOOKUP(C74,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>50</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(C74,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C74,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I74" t="str">
-        <f>VLOOKUP(C74,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C74,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J74" t="str">
-        <f>VLOOKUP(C74,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C74,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -28716,34 +28760,34 @@
         <v>1236</v>
       </c>
       <c r="C75" t="s">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="D75" t="str">
-        <f>VLOOKUP(C75,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>admin_name</v>
+        <f>VLOOKUP(C75,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>admin_password</v>
       </c>
       <c r="E75" t="str">
-        <f>VLOOKUP(C75,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C75,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F75">
-        <f>VLOOKUP(C75,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C75,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(C75,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C75,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I75" t="str">
-        <f>VLOOKUP(C75,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C75,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J75" t="str">
-        <f>VLOOKUP(C75,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C75,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -28754,34 +28798,34 @@
         <v>1236</v>
       </c>
       <c r="C76" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="D76" t="str">
-        <f>VLOOKUP(C76,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>admin_privileges</v>
+        <f>VLOOKUP(C76,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>admin_name</v>
       </c>
       <c r="E76" t="str">
-        <f>VLOOKUP(C76,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C76,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F76">
-        <f>VLOOKUP(C76,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>10</v>
+        <f>VLOOKUP(C76,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(C76,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C76,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I76" t="str">
-        <f>VLOOKUP(C76,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C76,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J76" t="str">
-        <f>VLOOKUP(C76,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C76,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -28792,71 +28836,72 @@
         <v>1236</v>
       </c>
       <c r="C77" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D77" t="str">
-        <f>VLOOKUP(C77,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>usage_status</v>
+        <f>VLOOKUP(C77,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>admin_privileges</v>
       </c>
       <c r="E77" t="str">
-        <f>VLOOKUP(C77,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <f>VLOOKUP(C77,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F77">
-        <f>VLOOKUP(C77,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(C77,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>10</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(C77,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C77,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I77" t="str">
-        <f>VLOOKUP(C77,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C77,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J77" t="str">
-        <f>VLOOKUP(C77,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C77,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1181</v>
       </c>
       <c r="B78" t="s">
         <v>1236</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>915</v>
+      <c r="C78" t="s">
+        <v>1115</v>
       </c>
       <c r="D78" t="str">
-        <f>VLOOKUP(C78,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C78,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>usage_status</v>
       </c>
       <c r="E78" t="str">
-        <f>VLOOKUP(C78,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F78" t="str">
-        <f>VLOOKUP(C78,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="G78"/>
-      <c r="H78"/>
+        <f>VLOOKUP(C78,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP(C78,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP(C78,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
       <c r="I78" t="str">
-        <f>VLOOKUP(C78,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C78,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J78" t="str">
-        <f>VLOOKUP(C78,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
-      </c>
-      <c r="K78"/>
+        <f>VLOOKUP(C78,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
+      </c>
       <c r="L78">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -28867,77 +28912,70 @@
         <v>1236</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D79" t="str">
-        <f>VLOOKUP(C79,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <f>VLOOKUP(C79,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
       </c>
       <c r="E79" t="str">
-        <f>VLOOKUP(C79,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C79,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F79" t="str">
-        <f>VLOOKUP(C79,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C79,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="str">
-        <f>VLOOKUP(C79,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C79,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J79" t="str">
-        <f>VLOOKUP(C79,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <f>VLOOKUP(C79,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
       </c>
       <c r="K79"/>
       <c r="L79">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="D80" t="str">
+        <f>VLOOKUP(C80,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>updated_at</v>
+      </c>
+      <c r="E80" t="str">
+        <f>VLOOKUP(C80,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
+      </c>
+      <c r="F80" t="str">
+        <f>VLOOKUP(C80,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80" t="str">
+        <f>VLOOKUP(C80,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
+      </c>
+      <c r="J80" t="str">
+        <f>VLOOKUP(C80,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>update</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80">
         <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>923</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" t="str">
-        <f>VLOOKUP(C80,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_code</v>
-      </c>
-      <c r="E80" t="str">
-        <f>VLOOKUP(C80,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F80" t="str">
-        <f>VLOOKUP(C80,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
-      </c>
-      <c r="G80" t="str">
-        <f>VLOOKUP(C80,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
-      <c r="I80" t="str">
-        <f>VLOOKUP(C80,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J80" t="str">
-        <f>VLOOKUP(C80,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
@@ -28948,34 +28986,40 @@
         <v>923</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>924</v>
+        <v>232</v>
       </c>
       <c r="D81" t="str">
-        <f>VLOOKUP(C81,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_kind</v>
+        <f>VLOOKUP(C81,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_code</v>
       </c>
       <c r="E81" t="str">
-        <f>VLOOKUP(C81,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
-      </c>
-      <c r="F81">
-        <f>VLOOKUP(C81,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C81,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
+      </c>
+      <c r="F81" t="str">
+        <f>VLOOKUP(C81,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f>VLOOKUP(C81,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
+      <c r="I81" t="str">
+        <f>VLOOKUP(C81,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
+      </c>
+      <c r="J81" t="str">
+        <f>VLOOKUP(C81,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
+      </c>
+      <c r="K81">
         <v>1</v>
       </c>
-      <c r="G81" t="str">
-        <f>VLOOKUP(C81,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
-      <c r="I81" t="str">
-        <f>VLOOKUP(C81,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J81" t="str">
-        <f>VLOOKUP(C81,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
       <c r="L81">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
@@ -28986,34 +29030,34 @@
         <v>923</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D82" t="str">
-        <f>VLOOKUP(C82,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_main</v>
+        <f>VLOOKUP(C82,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_kind</v>
       </c>
       <c r="E82" t="str">
-        <f>VLOOKUP(C82,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C82,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F82">
-        <f>VLOOKUP(C82,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C82,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f>VLOOKUP(C82,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
+      <c r="I82" t="str">
+        <f>VLOOKUP(C82,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
+      </c>
+      <c r="J82" t="str">
+        <f>VLOOKUP(C82,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
+      </c>
+      <c r="L82">
         <v>2</v>
-      </c>
-      <c r="G82" t="str">
-        <f>VLOOKUP(C82,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
-      <c r="I82" t="str">
-        <f>VLOOKUP(C82,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
-      </c>
-      <c r="J82" t="str">
-        <f>VLOOKUP(C82,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="L82">
-        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
@@ -29024,34 +29068,34 @@
         <v>923</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D83" t="str">
-        <f>VLOOKUP(C83,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_sub</v>
+        <f>VLOOKUP(C83,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_main</v>
       </c>
       <c r="E83" t="str">
-        <f>VLOOKUP(C83,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C83,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F83">
-        <f>VLOOKUP(C83,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C83,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(C83,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C83,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I83" t="str">
-        <f>VLOOKUP(C83,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C83,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J83" t="str">
-        <f>VLOOKUP(C83,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C83,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
@@ -29062,34 +29106,34 @@
         <v>923</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D84" t="str">
-        <f>VLOOKUP(C84,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_small</v>
+        <f>VLOOKUP(C84,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_sub</v>
       </c>
       <c r="E84" t="str">
-        <f>VLOOKUP(C84,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C84,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>char</v>
       </c>
       <c r="F84">
-        <f>VLOOKUP(C84,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C84,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(C84,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C84,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I84" t="str">
-        <f>VLOOKUP(C84,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C84,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J84" t="str">
-        <f>VLOOKUP(C84,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C84,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L84">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
@@ -29100,34 +29144,34 @@
         <v>923</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>330</v>
+        <v>927</v>
       </c>
       <c r="D85" t="str">
-        <f>VLOOKUP(C85,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_name</v>
+        <f>VLOOKUP(C85,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_small</v>
       </c>
       <c r="E85" t="str">
-        <f>VLOOKUP(C85,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <f>VLOOKUP(C85,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
       </c>
       <c r="F85">
-        <f>VLOOKUP(C85,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <f>VLOOKUP(C85,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(C85,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C85,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I85" t="str">
-        <f>VLOOKUP(C85,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C85,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J85" t="str">
-        <f>VLOOKUP(C85,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C85,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L85">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
@@ -29138,34 +29182,34 @@
         <v>923</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>929</v>
+        <v>330</v>
       </c>
       <c r="D86" t="str">
-        <f>VLOOKUP(C86,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_type</v>
+        <f>VLOOKUP(C86,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_name</v>
       </c>
       <c r="E86" t="str">
-        <f>VLOOKUP(C86,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <f>VLOOKUP(C86,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F86">
-        <f>VLOOKUP(C86,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(C86,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(C86,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C86,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I86" t="str">
-        <f>VLOOKUP(C86,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <f>VLOOKUP(C86,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J86" t="str">
-        <f>VLOOKUP(C86,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C86,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L86">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
@@ -29176,30 +29220,34 @@
         <v>923</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D87" t="str">
-        <f>VLOOKUP(C87,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_icon</v>
+        <f>VLOOKUP(C87,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_type</v>
       </c>
       <c r="E87" t="str">
-        <f>VLOOKUP(C87,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <f>VLOOKUP(C87,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
       </c>
       <c r="F87">
-        <f>VLOOKUP(C87,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <f>VLOOKUP(C87,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <f>VLOOKUP(C87,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I87" t="str">
-        <f>VLOOKUP(C87,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C87,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J87" t="str">
-        <f>VLOOKUP(C87,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C87,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L87">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
@@ -29210,30 +29258,30 @@
         <v>923</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D88" t="str">
-        <f>VLOOKUP(C88,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>menu_component</v>
+        <f>VLOOKUP(C88,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_icon</v>
       </c>
       <c r="E88" t="str">
-        <f>VLOOKUP(C88,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C88,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F88">
-        <f>VLOOKUP(C88,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C88,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>100</v>
       </c>
       <c r="I88" t="str">
-        <f>VLOOKUP(C88,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C88,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J88" t="str">
-        <f>VLOOKUP(C88,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C88,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L88">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
@@ -29244,30 +29292,30 @@
         <v>923</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="D89" t="str">
-        <f>VLOOKUP(C89,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C89,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>menu_component</v>
       </c>
       <c r="E89" t="str">
-        <f>VLOOKUP(C89,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F89" t="str">
-        <f>VLOOKUP(C89,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(C89,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>varchar</v>
+      </c>
+      <c r="F89">
+        <f>VLOOKUP(C89,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="I89" t="str">
-        <f>VLOOKUP(C89,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C89,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J89" t="str">
-        <f>VLOOKUP(C89,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <f>VLOOKUP(C89,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
       </c>
       <c r="L89">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
@@ -29278,71 +29326,64 @@
         <v>923</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D90" t="str">
-        <f>VLOOKUP(C90,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <f>VLOOKUP(C90,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
       </c>
       <c r="E90" t="str">
-        <f>VLOOKUP(C90,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C90,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F90" t="str">
-        <f>VLOOKUP(C90,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C90,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="I90" t="str">
-        <f>VLOOKUP(C90,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C90,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J90" t="str">
-        <f>VLOOKUP(C90,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <f>VLOOKUP(C90,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
       </c>
       <c r="L90">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
-        <v>936</v>
+        <v>236</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>937</v>
+        <v>923</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>938</v>
+        <v>910</v>
       </c>
       <c r="D91" t="str">
-        <f>VLOOKUP(C91,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>common_kind_code</v>
+        <f>VLOOKUP(C91,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>updated_at</v>
       </c>
       <c r="E91" t="str">
-        <f>VLOOKUP(C91,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
-      </c>
-      <c r="F91">
-        <f>VLOOKUP(C91,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>20</v>
-      </c>
-      <c r="G91" t="str">
-        <f>VLOOKUP(C91,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
+        <f>VLOOKUP(C91,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
+      </c>
+      <c r="F91" t="str">
+        <f>VLOOKUP(C91,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
       </c>
       <c r="I91" t="str">
-        <f>VLOOKUP(C91,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <f>VLOOKUP(C91,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
       </c>
       <c r="J91" t="str">
-        <f>VLOOKUP(C91,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
+        <f>VLOOKUP(C91,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>update</v>
       </c>
       <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
@@ -29353,37 +29394,37 @@
         <v>937</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D92" t="str">
-        <f>VLOOKUP(C92,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>common_code</v>
+        <f>VLOOKUP(C92,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>common_kind_code</v>
       </c>
       <c r="E92" t="str">
-        <f>VLOOKUP(C92,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C92,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F92">
-        <f>VLOOKUP(C92,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(C92,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>20</v>
       </c>
       <c r="G92" t="str">
-        <f>VLOOKUP(C92,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C92,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I92" t="str">
-        <f>VLOOKUP(C92,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C92,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J92" t="str">
-        <f>VLOOKUP(C92,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C92,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
@@ -29394,34 +29435,37 @@
         <v>937</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D93" t="str">
-        <f>VLOOKUP(C93,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>common_name</v>
+        <f>VLOOKUP(C93,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>common_code</v>
       </c>
       <c r="E93" t="str">
-        <f>VLOOKUP(C93,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C93,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F93">
-        <f>VLOOKUP(C93,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>200</v>
+        <f>VLOOKUP(C93,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G93" t="str">
-        <f>VLOOKUP(C93,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C93,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I93" t="str">
-        <f>VLOOKUP(C93,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C93,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J93" t="str">
-        <f>VLOOKUP(C93,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C93,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
@@ -29432,30 +29476,34 @@
         <v>937</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>915</v>
+        <v>942</v>
       </c>
       <c r="D94" t="str">
-        <f>VLOOKUP(C94,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C94,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>common_name</v>
       </c>
       <c r="E94" t="str">
-        <f>VLOOKUP(C94,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F94" t="str">
-        <f>VLOOKUP(C94,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(C94,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>varchar</v>
+      </c>
+      <c r="F94">
+        <f>VLOOKUP(C94,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>200</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP(C94,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I94" t="str">
-        <f>VLOOKUP(C94,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C94,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J94" t="str">
-        <f>VLOOKUP(C94,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <f>VLOOKUP(C94,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
@@ -29466,74 +29514,64 @@
         <v>937</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D95" t="str">
-        <f>VLOOKUP(C95,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <f>VLOOKUP(C95,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
       </c>
       <c r="E95" t="str">
-        <f>VLOOKUP(C95,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C95,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F95" t="str">
-        <f>VLOOKUP(C95,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C95,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="I95" t="str">
-        <f>VLOOKUP(C95,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C95,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J95" t="str">
-        <f>VLOOKUP(C95,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <f>VLOOKUP(C95,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
-        <v>1310</v>
+        <v>936</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>1311</v>
+        <v>937</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>1314</v>
+        <v>910</v>
       </c>
       <c r="D96" t="str">
-        <f>VLOOKUP(C96,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_code</v>
+        <f>VLOOKUP(C96,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>updated_at</v>
       </c>
       <c r="E96" t="str">
-        <f>VLOOKUP(C96,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F96">
-        <f>VLOOKUP(C96,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G96" t="str">
-        <f>VLOOKUP(C96,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
+        <f>VLOOKUP(C96,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
+      </c>
+      <c r="F96" t="str">
+        <f>VLOOKUP(C96,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
       </c>
       <c r="I96" t="str">
-        <f>VLOOKUP(C96,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <f>VLOOKUP(C96,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
       </c>
       <c r="J96" t="str">
-        <f>VLOOKUP(C96,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
+        <f>VLOOKUP(C96,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>update</v>
       </c>
       <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
@@ -29544,34 +29582,40 @@
         <v>1311</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D97" t="str">
-        <f>VLOOKUP(C97,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_type</v>
+        <f>VLOOKUP(C97,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>post_code</v>
       </c>
       <c r="E97" t="str">
-        <f>VLOOKUP(C97,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <f>VLOOKUP(C97,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
       </c>
       <c r="F97">
-        <f>VLOOKUP(C97,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(C97,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G97" t="str">
-        <f>VLOOKUP(C97,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C97,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I97" t="str">
-        <f>VLOOKUP(C97,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C97,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J97" t="str">
-        <f>VLOOKUP(C97,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C97,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
       <c r="L97">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
@@ -29582,34 +29626,34 @@
         <v>1311</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D98" t="str">
-        <f>VLOOKUP(C98,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_title</v>
+        <f>VLOOKUP(C98,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>post_type</v>
       </c>
       <c r="E98" t="str">
-        <f>VLOOKUP(C98,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <f>VLOOKUP(C98,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
       </c>
       <c r="F98">
-        <f>VLOOKUP(C98,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>100</v>
+        <f>VLOOKUP(C98,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="G98" t="str">
-        <f>VLOOKUP(C98,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C98,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I98" t="str">
-        <f>VLOOKUP(C98,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C98,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J98" t="str">
-        <f>VLOOKUP(C98,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C98,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
@@ -29620,34 +29664,34 @@
         <v>1311</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D99" t="str">
-        <f>VLOOKUP(C99,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_content</v>
+        <f>VLOOKUP(C99,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>post_title</v>
       </c>
       <c r="E99" t="str">
-        <f>VLOOKUP(C99,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C99,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>varchar</v>
       </c>
       <c r="F99">
-        <f>VLOOKUP(C99,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2000</v>
+        <f>VLOOKUP(C99,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>100</v>
       </c>
       <c r="G99" t="str">
-        <f>VLOOKUP(C99,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C99,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I99" t="str">
-        <f>VLOOKUP(C99,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C99,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J99" t="str">
-        <f>VLOOKUP(C99,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C99,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
@@ -29658,34 +29702,34 @@
         <v>1311</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D100" t="str">
-        <f>VLOOKUP(C100,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>author_code</v>
+        <f>VLOOKUP(C100,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>post_content</v>
       </c>
       <c r="E100" t="str">
-        <f>VLOOKUP(C100,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
+        <f>VLOOKUP(C100,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F100">
-        <f>VLOOKUP(C100,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C100,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2000</v>
       </c>
       <c r="G100" t="str">
-        <f>VLOOKUP(C100,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C100,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I100" t="str">
-        <f>VLOOKUP(C100,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C100,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J100" t="str">
-        <f>VLOOKUP(C100,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C100,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
@@ -29696,34 +29740,34 @@
         <v>1311</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D101" t="str">
-        <f>VLOOKUP(C101,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>author_tpye</v>
+        <f>VLOOKUP(C101,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>author_code</v>
       </c>
       <c r="E101" t="str">
-        <f>VLOOKUP(C101,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <f>VLOOKUP(C101,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
       </c>
       <c r="F101">
-        <f>VLOOKUP(C101,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(C101,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G101" t="str">
-        <f>VLOOKUP(C101,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C101,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I101" t="str">
-        <f>VLOOKUP(C101,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C101,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J101" t="str">
-        <f>VLOOKUP(C101,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C101,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L101">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
@@ -29734,30 +29778,34 @@
         <v>1311</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>915</v>
+        <v>1319</v>
       </c>
       <c r="D102" t="str">
-        <f>VLOOKUP(C102,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C102,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>author_tpye</v>
       </c>
       <c r="E102" t="str">
-        <f>VLOOKUP(C102,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F102" t="str">
-        <f>VLOOKUP(C102,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(C102,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
+      </c>
+      <c r="F102">
+        <f>VLOOKUP(C102,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G102" t="str">
+        <f>VLOOKUP(C102,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I102" t="str">
-        <f>VLOOKUP(C102,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C102,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J102" t="str">
-        <f>VLOOKUP(C102,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <f>VLOOKUP(C102,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
       </c>
       <c r="L102">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
@@ -29768,74 +29816,64 @@
         <v>1311</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D103" t="str">
-        <f>VLOOKUP(C103,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <f>VLOOKUP(C103,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
       </c>
       <c r="E103" t="str">
-        <f>VLOOKUP(C103,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C103,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F103" t="str">
-        <f>VLOOKUP(C103,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C103,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="I103" t="str">
-        <f>VLOOKUP(C103,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C103,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J103" t="str">
-        <f>VLOOKUP(C103,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <f>VLOOKUP(C103,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
       </c>
       <c r="L103">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>1320</v>
+        <v>910</v>
       </c>
       <c r="D104" t="str">
-        <f>VLOOKUP(C104,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>review_code</v>
+        <f>VLOOKUP(C104,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>updated_at</v>
       </c>
       <c r="E104" t="str">
-        <f>VLOOKUP(C104,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
-      </c>
-      <c r="F104">
-        <f>VLOOKUP(C104,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G104" t="str">
-        <f>VLOOKUP(C104,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
+        <f>VLOOKUP(C104,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
+      </c>
+      <c r="F104" t="str">
+        <f>VLOOKUP(C104,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
       </c>
       <c r="I104" t="str">
-        <f>VLOOKUP(C104,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C104,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
       </c>
       <c r="J104" t="str">
-        <f>VLOOKUP(C104,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
+        <f>VLOOKUP(C104,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>update</v>
       </c>
       <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
@@ -29846,34 +29884,40 @@
         <v>1313</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="D105" t="str">
-        <f>VLOOKUP(C105,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_code</v>
+        <f>VLOOKUP(C105,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>review_code</v>
       </c>
       <c r="E105" t="str">
-        <f>VLOOKUP(C105,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C105,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F105">
-        <f>VLOOKUP(C105,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C105,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G105" t="str">
-        <f>VLOOKUP(C105,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C105,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I105" t="str">
-        <f>VLOOKUP(C105,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <f>VLOOKUP(C105,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J105" t="str">
-        <f>VLOOKUP(C105,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C105,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
       <c r="L105">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
@@ -29884,34 +29928,34 @@
         <v>1313</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>1321</v>
+        <v>1314</v>
       </c>
       <c r="D106" t="str">
-        <f>VLOOKUP(C106,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>review_rating</v>
+        <f>VLOOKUP(C106,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>post_code</v>
       </c>
       <c r="E106" t="str">
-        <f>VLOOKUP(C106,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C106,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
       <c r="F106">
-        <f>VLOOKUP(C106,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C106,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G106" t="str">
-        <f>VLOOKUP(C106,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C106,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I106" t="str">
-        <f>VLOOKUP(C106,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C106,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J106" t="str">
-        <f>VLOOKUP(C106,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C106,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
@@ -29922,30 +29966,34 @@
         <v>1313</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>915</v>
+        <v>1321</v>
       </c>
       <c r="D107" t="str">
-        <f>VLOOKUP(C107,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C107,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>review_rating</v>
       </c>
       <c r="E107" t="str">
-        <f>VLOOKUP(C107,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F107" t="str">
-        <f>VLOOKUP(C107,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(C107,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
+      </c>
+      <c r="F107">
+        <f>VLOOKUP(C107,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G107" t="str">
+        <f>VLOOKUP(C107,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I107" t="str">
-        <f>VLOOKUP(C107,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C107,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J107" t="str">
-        <f>VLOOKUP(C107,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <f>VLOOKUP(C107,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
@@ -29956,74 +30004,64 @@
         <v>1313</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D108" t="str">
-        <f>VLOOKUP(C108,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <f>VLOOKUP(C108,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
       </c>
       <c r="E108" t="str">
-        <f>VLOOKUP(C108,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C108,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F108" t="str">
-        <f>VLOOKUP(C108,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C108,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="I108" t="str">
-        <f>VLOOKUP(C108,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C108,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J108" t="str">
-        <f>VLOOKUP(C108,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <f>VLOOKUP(C108,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
       </c>
       <c r="L108">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
-        <v>1182</v>
+        <v>1312</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>1238</v>
+        <v>1313</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1121</v>
+        <v>910</v>
       </c>
       <c r="D109" t="str">
-        <f>VLOOKUP(C109,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>inquiry_code</v>
+        <f>VLOOKUP(C109,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>updated_at</v>
       </c>
       <c r="E109" t="str">
-        <f>VLOOKUP(C109,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
+        <f>VLOOKUP(C109,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
       </c>
       <c r="F109" t="str">
-        <f>VLOOKUP(C109,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C109,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
-      <c r="G109" t="str">
-        <f>VLOOKUP(C109,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
       <c r="I109" t="str">
-        <f>VLOOKUP(C109,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <f>VLOOKUP(C109,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
       </c>
       <c r="J109" t="str">
-        <f>VLOOKUP(C109,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
+        <f>VLOOKUP(C109,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>update</v>
       </c>
       <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
@@ -30034,34 +30072,40 @@
         <v>1238</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1314</v>
+        <v>1121</v>
       </c>
       <c r="D110" t="str">
-        <f>VLOOKUP(C110,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_code</v>
+        <f>VLOOKUP(C110,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>inquiry_code</v>
       </c>
       <c r="E110" t="str">
-        <f>VLOOKUP(C110,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C110,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
-      <c r="F110">
-        <f>VLOOKUP(C110,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
+      <c r="F110" t="str">
+        <f>VLOOKUP(C110,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
       </c>
       <c r="G110" t="str">
-        <f>VLOOKUP(C110,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C110,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I110" t="str">
-        <f>VLOOKUP(C110,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C110,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J110" t="str">
-        <f>VLOOKUP(C110,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C110,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
       <c r="L110">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
@@ -30072,34 +30116,34 @@
         <v>1238</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="D111" t="str">
-        <f>VLOOKUP(C111,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>inquiry_status</v>
+        <f>VLOOKUP(C111,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>post_code</v>
       </c>
       <c r="E111" t="str">
-        <f>VLOOKUP(C111,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <f>VLOOKUP(C111,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
       </c>
       <c r="F111">
-        <f>VLOOKUP(C111,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C111,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" t="str">
+        <f>VLOOKUP(C111,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
+      </c>
+      <c r="I111" t="str">
+        <f>VLOOKUP(C111,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
+      </c>
+      <c r="J111" t="str">
+        <f>VLOOKUP(C111,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
+      </c>
+      <c r="L111">
         <v>2</v>
-      </c>
-      <c r="G111" t="str">
-        <f>VLOOKUP(C111,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
-      <c r="I111" t="str">
-        <f>VLOOKUP(C111,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
-      </c>
-      <c r="J111" t="str">
-        <f>VLOOKUP(C111,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="L111">
-        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
@@ -30110,30 +30154,34 @@
         <v>1238</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>915</v>
+        <v>1322</v>
       </c>
       <c r="D112" t="str">
-        <f>VLOOKUP(C112,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C112,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>inquiry_status</v>
       </c>
       <c r="E112" t="str">
-        <f>VLOOKUP(C112,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F112" t="str">
-        <f>VLOOKUP(C112,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(C112,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
+      </c>
+      <c r="F112">
+        <f>VLOOKUP(C112,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G112" t="str">
+        <f>VLOOKUP(C112,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I112" t="str">
-        <f>VLOOKUP(C112,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C112,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J112" t="str">
-        <f>VLOOKUP(C112,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <f>VLOOKUP(C112,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
@@ -30144,74 +30192,64 @@
         <v>1238</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D113" t="str">
-        <f>VLOOKUP(C113,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>updated_at</v>
+        <f>VLOOKUP(C113,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
       </c>
       <c r="E113" t="str">
-        <f>VLOOKUP(C113,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C113,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
       <c r="F113" t="str">
-        <f>VLOOKUP(C113,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C113,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
       <c r="I113" t="str">
-        <f>VLOOKUP(C113,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C113,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
       <c r="J113" t="str">
-        <f>VLOOKUP(C113,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>update</v>
+        <f>VLOOKUP(C113,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
       </c>
       <c r="L113">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>1187</v>
+        <v>1238</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>1124</v>
+        <v>910</v>
       </c>
       <c r="D114" t="str">
-        <f>VLOOKUP(C114,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>response_code</v>
+        <f>VLOOKUP(C114,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>updated_at</v>
       </c>
       <c r="E114" t="str">
-        <f>VLOOKUP(C114,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
+        <f>VLOOKUP(C114,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
       </c>
       <c r="F114" t="str">
-        <f>VLOOKUP(C114,컬러명!$A$2:$H$179,4,FALSE)</f>
+        <f>VLOOKUP(C114,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
-      <c r="G114" t="str">
-        <f>VLOOKUP(C114,컬러명!$A$2:$H$179,5,FALSE)</f>
-        <v>not null</v>
-      </c>
       <c r="I114" t="str">
-        <f>VLOOKUP(C114,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>code</v>
+        <f>VLOOKUP(C114,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
       </c>
       <c r="J114" t="str">
-        <f>VLOOKUP(C114,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>no</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
+        <f>VLOOKUP(C114,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>update</v>
       </c>
       <c r="L114">
-        <v>1</v>
-      </c>
-      <c r="M114">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
@@ -30222,34 +30260,40 @@
         <v>1187</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>1314</v>
+        <v>1124</v>
       </c>
       <c r="D115" t="str">
-        <f>VLOOKUP(C115,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>post_code</v>
+        <f>VLOOKUP(C115,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>response_code</v>
       </c>
       <c r="E115" t="str">
-        <f>VLOOKUP(C115,컬러명!$A$2:$H$179,3,FALSE)</f>
+        <f>VLOOKUP(C115,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>int</v>
       </c>
-      <c r="F115">
-        <f>VLOOKUP(C115,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
+      <c r="F115" t="str">
+        <f>VLOOKUP(C115,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
       </c>
       <c r="G115" t="str">
-        <f>VLOOKUP(C115,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C115,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I115" t="str">
-        <f>VLOOKUP(C115,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C115,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>code</v>
       </c>
       <c r="J115" t="str">
-        <f>VLOOKUP(C115,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C115,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
       <c r="L115">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -30260,34 +30304,34 @@
         <v>1187</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>1125</v>
+        <v>1314</v>
       </c>
       <c r="D116" t="str">
-        <f>VLOOKUP(C116,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>response_content</v>
+        <f>VLOOKUP(C116,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>post_code</v>
       </c>
       <c r="E116" t="str">
-        <f>VLOOKUP(C116,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>varchar</v>
+        <f>VLOOKUP(C116,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
       </c>
       <c r="F116">
-        <f>VLOOKUP(C116,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2000</v>
+        <f>VLOOKUP(C116,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G116" t="str">
-        <f>VLOOKUP(C116,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C116,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I116" t="str">
-        <f>VLOOKUP(C116,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>name</v>
+        <f>VLOOKUP(C116,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>code</v>
       </c>
       <c r="J116" t="str">
-        <f>VLOOKUP(C116,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C116,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -30298,34 +30342,34 @@
         <v>1187</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>1318</v>
+        <v>1125</v>
       </c>
       <c r="D117" t="str">
-        <f>VLOOKUP(C117,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>author_code</v>
+        <f>VLOOKUP(C117,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>response_content</v>
       </c>
       <c r="E117" t="str">
-        <f>VLOOKUP(C117,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>int</v>
+        <f>VLOOKUP(C117,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>varchar</v>
       </c>
       <c r="F117">
-        <f>VLOOKUP(C117,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C117,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2000</v>
       </c>
       <c r="G117" t="str">
-        <f>VLOOKUP(C117,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C117,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I117" t="str">
-        <f>VLOOKUP(C117,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C117,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J117" t="str">
-        <f>VLOOKUP(C117,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C117,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -30336,34 +30380,34 @@
         <v>1187</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D118" t="str">
-        <f>VLOOKUP(C118,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>author_tpye</v>
+        <f>VLOOKUP(C118,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>author_code</v>
       </c>
       <c r="E118" t="str">
-        <f>VLOOKUP(C118,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>char</v>
+        <f>VLOOKUP(C118,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>int</v>
       </c>
       <c r="F118">
-        <f>VLOOKUP(C118,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(C118,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="G118" t="str">
-        <f>VLOOKUP(C118,컬러명!$A$2:$H$179,5,FALSE)</f>
+        <f>VLOOKUP(C118,컬럼명!$A$2:$H$179,5,FALSE)</f>
         <v>not null</v>
       </c>
       <c r="I118" t="str">
-        <f>VLOOKUP(C118,컬러명!$A$2:$H$179,7,FALSE)</f>
+        <f>VLOOKUP(C118,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>name</v>
       </c>
       <c r="J118" t="str">
-        <f>VLOOKUP(C118,컬러명!$A$2:$H$179,8,FALSE)</f>
+        <f>VLOOKUP(C118,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>no</v>
       </c>
       <c r="L118">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -30374,30 +30418,34 @@
         <v>1187</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>915</v>
+        <v>1319</v>
       </c>
       <c r="D119" t="str">
-        <f>VLOOKUP(C119,컬러명!$A$2:$H$179,2,FALSE)</f>
-        <v>created_at</v>
+        <f>VLOOKUP(C119,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>author_tpye</v>
       </c>
       <c r="E119" t="str">
-        <f>VLOOKUP(C119,컬러명!$A$2:$H$179,3,FALSE)</f>
-        <v>timestamp</v>
-      </c>
-      <c r="F119" t="str">
-        <f>VLOOKUP(C119,컬러명!$A$2:$H$179,4,FALSE)</f>
-        <v/>
+        <f>VLOOKUP(C119,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>char</v>
+      </c>
+      <c r="F119">
+        <f>VLOOKUP(C119,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G119" t="str">
+        <f>VLOOKUP(C119,컬럼명!$A$2:$H$179,5,FALSE)</f>
+        <v>not null</v>
       </c>
       <c r="I119" t="str">
-        <f>VLOOKUP(C119,컬러명!$A$2:$H$179,7,FALSE)</f>
-        <v>sysdate</v>
+        <f>VLOOKUP(C119,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>name</v>
       </c>
       <c r="J119" t="str">
-        <f>VLOOKUP(C119,컬러명!$A$2:$H$179,8,FALSE)</f>
-        <v>create</v>
+        <f>VLOOKUP(C119,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>no</v>
       </c>
       <c r="L119">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
@@ -30408,39 +30456,73 @@
         <v>1187</v>
       </c>
       <c r="C120" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="D120" t="str">
+        <f>VLOOKUP(C120,컬럼명!$A$2:$H$179,2,FALSE)</f>
+        <v>created_at</v>
+      </c>
+      <c r="E120" t="str">
+        <f>VLOOKUP(C120,컬럼명!$A$2:$H$179,3,FALSE)</f>
+        <v>timestamp</v>
+      </c>
+      <c r="F120" t="str">
+        <f>VLOOKUP(C120,컬럼명!$A$2:$H$179,4,FALSE)</f>
+        <v/>
+      </c>
+      <c r="I120" t="str">
+        <f>VLOOKUP(C120,컬럼명!$A$2:$H$179,7,FALSE)</f>
+        <v>sysdate</v>
+      </c>
+      <c r="J120" t="str">
+        <f>VLOOKUP(C120,컬럼명!$A$2:$H$179,8,FALSE)</f>
+        <v>create</v>
+      </c>
+      <c r="L120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="12" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>910</v>
       </c>
-      <c r="D120" t="str">
-        <f>VLOOKUP(C120,컬러명!$A$2:$H$179,2,FALSE)</f>
+      <c r="D121" t="str">
+        <f>VLOOKUP(C121,컬럼명!$A$2:$H$179,2,FALSE)</f>
         <v>updated_at</v>
       </c>
-      <c r="E120" t="str">
-        <f>VLOOKUP(C120,컬러명!$A$2:$H$179,3,FALSE)</f>
+      <c r="E121" t="str">
+        <f>VLOOKUP(C121,컬럼명!$A$2:$H$179,3,FALSE)</f>
         <v>timestamp</v>
       </c>
-      <c r="F120" t="str">
-        <f>VLOOKUP(C120,컬러명!$A$2:$H$179,4,FALSE)</f>
+      <c r="F121" t="str">
+        <f>VLOOKUP(C121,컬럼명!$A$2:$H$179,4,FALSE)</f>
         <v/>
       </c>
-      <c r="I120" t="str">
-        <f>VLOOKUP(C120,컬러명!$A$2:$H$179,7,FALSE)</f>
+      <c r="I121" t="str">
+        <f>VLOOKUP(C121,컬럼명!$A$2:$H$179,7,FALSE)</f>
         <v>sysdate</v>
       </c>
-      <c r="J120" t="str">
-        <f>VLOOKUP(C120,컬러명!$A$2:$H$179,8,FALSE)</f>
+      <c r="J121" t="str">
+        <f>VLOOKUP(C121,컬럼명!$A$2:$H$179,8,FALSE)</f>
         <v>update</v>
       </c>
-      <c r="L120">
+      <c r="L121">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M79"/>
+  <autoFilter ref="A1:M80"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
